--- a/Informacoes.xlsx
+++ b/Informacoes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Automação_Python\Automação_contrato_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9D2510-6364-41A2-82B5-C3B5E0EC9B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA100D6-A6A5-4691-8F33-51D758CBBD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="293" xr2:uid="{04D7124A-5188-4500-8497-6BF2720CFC6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="134">
   <si>
     <t>nome_locador</t>
   </si>
@@ -157,15 +158,6 @@
     <t>R$ 1.800,00</t>
   </si>
   <si>
-    <t>Até o dia 10 de cada mês</t>
-  </si>
-  <si>
-    <t>Imobiliária Sol Nascente</t>
-  </si>
-  <si>
-    <t>André Silva</t>
-  </si>
-  <si>
     <t>Fernanda Santos</t>
   </si>
   <si>
@@ -214,15 +206,6 @@
     <t>R$ 2.500,00</t>
   </si>
   <si>
-    <t>Até o dia 5 de cada mês</t>
-  </si>
-  <si>
-    <t>Imobiliária Sonho Real</t>
-  </si>
-  <si>
-    <t>Lucas Oliveira</t>
-  </si>
-  <si>
     <t>Mariana Silva</t>
   </si>
   <si>
@@ -265,9 +248,6 @@
     <t>€ 1.000,00</t>
   </si>
   <si>
-    <t>João Santos</t>
-  </si>
-  <si>
     <t>Maria Oliveira</t>
   </si>
   <si>
@@ -313,9 +293,6 @@
     <t>R$ 1.500,00</t>
   </si>
   <si>
-    <t>Pedro Oliveira</t>
-  </si>
-  <si>
     <t>Ana Lima</t>
   </si>
   <si>
@@ -331,9 +308,6 @@
     <t>31 de outubro de 2027</t>
   </si>
   <si>
-    <t>Pedro Santos</t>
-  </si>
-  <si>
     <t>Roberta Maria Pereira</t>
   </si>
   <si>
@@ -394,12 +368,6 @@
     <t>Rua das Acácias, 456, Bairro Jardim Botânico, São Paulo, Brasil</t>
   </si>
   <si>
-    <t>Imobiliária Realiza Sonhos</t>
-  </si>
-  <si>
-    <t>Felipe Silva</t>
-  </si>
-  <si>
     <t>Marina Gonçalves</t>
   </si>
   <si>
@@ -410,13 +378,73 @@
   </si>
   <si>
     <t>Rua Frei Gusmão, 789, Bairro Florescer, São Paulo, Brasil</t>
+  </si>
+  <si>
+    <t>nome_testemunha_1</t>
+  </si>
+  <si>
+    <t>nome_testemunha_2</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>São Paulo - SP</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro - RJ</t>
+  </si>
+  <si>
+    <t>Recife - Pernambuco</t>
+  </si>
+  <si>
+    <t>Manaus - AM</t>
+  </si>
+  <si>
+    <t>Porto Alegre - RS</t>
+  </si>
+  <si>
+    <t>Palmas - TO</t>
+  </si>
+  <si>
+    <t>local_assinatura</t>
+  </si>
+  <si>
+    <t>data_assinatura</t>
+  </si>
+  <si>
+    <t>17 de outubro de 2028</t>
+  </si>
+  <si>
+    <t>foro_cidade</t>
+  </si>
+  <si>
+    <t>Foro da Cidade de São Paulo</t>
+  </si>
+  <si>
+    <t>Foro da Cidade do Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Foro da Cidade de Recife</t>
+  </si>
+  <si>
+    <t>Foro da Cidade de Manaus</t>
+  </si>
+  <si>
+    <t>Foro da Cidade de Porto Alegre</t>
+  </si>
+  <si>
+    <t>Foro da Cidade de Palmas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +463,17 @@
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -457,11 +496,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D54E2C-7180-45FA-9DC4-3033A03357AD}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,13 +846,13 @@
     <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,19 +908,22 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -929,25 +975,28 @@
       <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="V2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -956,16 +1005,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
         <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -974,116 +1023,122 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
       </c>
       <c r="N3">
         <v>12</v>
       </c>
       <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
         <v>56</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>119</v>
+      </c>
+      <c r="V3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>57</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N4">
         <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>74</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -1092,16 +1147,16 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -1110,48 +1165,51 @@
         <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="N5">
         <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" t="s">
+        <v>121</v>
+      </c>
+      <c r="V5" t="s">
+        <v>126</v>
+      </c>
+      <c r="W5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>90</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" t="s">
-        <v>92</v>
-      </c>
-      <c r="U5" t="s">
-        <v>93</v>
-      </c>
-      <c r="V5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -1160,16 +1218,16 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
@@ -1178,66 +1236,69 @@
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N6">
         <v>36</v>
       </c>
       <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s">
         <v>89</v>
-      </c>
-      <c r="P6" t="s">
-        <v>97</v>
       </c>
       <c r="Q6" t="s">
         <v>39</v>
       </c>
-      <c r="R6" t="s">
-        <v>59</v>
+      <c r="R6">
+        <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="U6" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="V6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="W6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
         <v>113</v>
       </c>
-      <c r="F7" t="s">
-        <v>124</v>
-      </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -1246,43 +1307,46 @@
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="N7">
         <v>12</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q7" t="s">
         <v>39</v>
       </c>
-      <c r="R7" t="s">
-        <v>59</v>
+      <c r="R7">
+        <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="T7" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="U7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V7" t="s">
-        <v>77</v>
+        <v>89</v>
+      </c>
+      <c r="W7" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1291,6 +1355,314 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A42A07-A6F0-4E56-AF44-E3372B1B96E0}">
+  <dimension ref="C1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(C1," = info_table.loc[line_number,'",D1,"']")</f>
+        <v>nome_locador = info_table.loc[line_number,'nome_locador']</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E24" si="0">_xlfn.CONCAT(C2," = info_table.loc[line_number,'",D2,"']")</f>
+        <v>nacionalidade_locador = info_table.loc[line_number,'nacionalidade_locador']</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>estado_civil_locador = info_table.loc[line_number,'estado_civil_locador']</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>profissao_locador = info_table.loc[line_number,'profissao_locador']</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>cpf_locador = info_table.loc[line_number,'cpf_locador']</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>endereço_locador = info_table.loc[line_number,'endereço_locador']</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>nome_locatario = info_table.loc[line_number,'nome_locatario']</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>nacionalidade_locatario = info_table.loc[line_number,'nacionalidade_locatario']</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>estado_civil_locatario = info_table.loc[line_number,'estado_civil_locatario']</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>profissão_locatario = info_table.loc[line_number,'profissão_locatario']</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>cpf_locatario = info_table.loc[line_number,'cpf_locatario']</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>endereco_locatario = info_table.loc[line_number,'endereco_locatario']</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>endereco_imovel = info_table.loc[line_number,'endereco_imovel']</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>meses = info_table.loc[line_number,'meses']</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>data_de_inicio = info_table.loc[line_number,'data_de_inicio']</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>data_de_termino = info_table.loc[line_number,'data_de_termino']</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>valor_aluguel = info_table.loc[line_number,'valor_aluguel']</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>dia_pagamento = info_table.loc[line_number,'dia_pagamento']</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>nome_locadora = info_table.loc[line_number,'nome_locadora']</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>nome_locatario = info_table.loc[line_number,'nome_locatario']</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>nome_testemunha_1 = info_table.loc[line_number,'testemunha_1']</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>nome_testemunha_2 = info_table.loc[line_number,'testemunha_2']</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>local = info_table.loc[line_number,'local']</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>data = info_table.loc[line_number,'data']</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5635C19-2424-4758-ABCE-29B76D08AC37}">
   <dimension ref="A1:B44"/>
   <sheetViews>
@@ -1306,7 +1678,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B1" t="str">
         <f>SUBSTITUTE(A1,"Nome locador: ","")</f>
@@ -1315,7 +1687,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" t="str">
         <f>SUBSTITUTE(A2,"Nacionalidade locador: ","")</f>
@@ -1324,7 +1696,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B3" t="str">
         <f>SUBSTITUTE(A3,"Estado civil locador: ","")</f>
@@ -1333,7 +1705,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B4" t="str">
         <f>SUBSTITUTE(A4,"Profissão locador: ","")</f>
@@ -1342,7 +1714,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B5" t="str">
         <f>SUBSTITUTE(A5,"CPF locador: ","")</f>
@@ -1351,7 +1723,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B6" t="str">
         <f>SUBSTITUTE(A6,"Endereço locador: ","")</f>
@@ -1360,7 +1732,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B7" t="str">
         <f>SUBSTITUTE(A7,"Nome locatário: ","")</f>
@@ -1387,7 +1759,7 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B10" t="str">
         <f>SUBSTITUTE(A10,"Profissão locatário: ","")</f>
@@ -1396,7 +1768,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B11" t="str">
         <f>SUBSTITUTE(A11,"CPF locatário: ","")</f>
@@ -1405,7 +1777,7 @@
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B12" t="str">
         <f>SUBSTITUTE(A12,"Endereço locatário: ","")</f>
@@ -1414,7 +1786,7 @@
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B13" t="str">
         <f>SUBSTITUTE(A13,"Endereço imóvel: ","")</f>
@@ -1423,7 +1795,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" t="str">
         <f>SUBSTITUTE(A14,"Prazo de locação: ","")</f>
@@ -1432,7 +1804,7 @@
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B15" t="str">
         <f>SUBSTITUTE(A15,"Data de início: ","")</f>
@@ -1441,7 +1813,7 @@
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B16" t="str">
         <f>SUBSTITUTE(A16,"Data de término: ","")</f>
@@ -1459,7 +1831,7 @@
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" t="str">
         <f>SUBSTITUTE(A18,"Dia pagamento: ","")</f>
@@ -1468,7 +1840,7 @@
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B19" t="str">
         <f>SUBSTITUTE(A19,"Nome locadora: ","")</f>
@@ -1477,7 +1849,7 @@
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B20" t="str">
         <f>SUBSTITUTE(A20,"Testemunha 1: ","")</f>
@@ -1486,7 +1858,7 @@
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B21" t="str">
         <f>SUBSTITUTE(A21,"Testemunha 2: ","")</f>
@@ -1495,37 +1867,37 @@
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1540,37 +1912,37 @@
     </row>
     <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
@@ -1580,22 +1952,22 @@
     </row>
     <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
